--- a/doc/功能列表.xlsx
+++ b/doc/功能列表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="功能列表" sheetId="1" r:id="rId1"/>
+    <sheet name="bug列表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,46 @@
   </si>
   <si>
     <t>更新笔记内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册已存在客户，错误提示优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新注册用户内容自动加载。note.getParentNode().name报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出按钮也不好用，我就按网页刷新旁边按钮  多次之后点击退出不好用了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navigation导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器，一开始未加载，添加笔记后同样不会加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,10 +167,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,12 +577,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="51.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
